--- a/Secretarias/OFIGOB/IVJ/IVJ_OK.xlsx
+++ b/Secretarias/OFIGOB/IVJ/IVJ_OK.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sociodemograficos01\Documents\GitHub\MapasTematicos\Secretarias\OFIGOB\IVJ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\OFIGOB\IVJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF453A-F282-40CF-9B82-8480EDB49326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A65CCE0-DDBE-4109-92BF-9634014A3149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACCIONES 2021" sheetId="3" r:id="rId1"/>
     <sheet name="ACCIONES 2022" sheetId="4" r:id="rId2"/>
     <sheet name="ACCIONES 2023" sheetId="5" r:id="rId3"/>
+    <sheet name="ACCIONES 2024" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ACCIONES 2021'!$A$1:$F$38</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="440">
   <si>
     <t>30003</t>
   </si>
@@ -1189,6 +1190,168 @@
   </si>
   <si>
     <t>30094</t>
+  </si>
+  <si>
+    <t>30006</t>
+  </si>
+  <si>
+    <t>Acultzingo</t>
+  </si>
+  <si>
+    <t>Charla participativa “EncontrArte”</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123892328_e3a343f214_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124072815_6bc172e623_k.jpg</t>
+  </si>
+  <si>
+    <t>30117</t>
+  </si>
+  <si>
+    <t>Omealca</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123616766_22a59b9a0c_k.jpg</t>
+  </si>
+  <si>
+    <t>30192</t>
+  </si>
+  <si>
+    <t>Vega de Alatorre</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123616551_39677ffa8a_h.jpg</t>
+  </si>
+  <si>
+    <t>Jornadas de competitividad para las juventudes</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123617171_36de3cedb4_k.jpg</t>
+  </si>
+  <si>
+    <t>30155</t>
+  </si>
+  <si>
+    <t>Tantoyuca</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54122770952_d1ce678deb_k.jpg</t>
+  </si>
+  <si>
+    <t>30118</t>
+  </si>
+  <si>
+    <t>Orizaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornadas de competitividad para las juventudes </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123892448_8a7ac5efa9_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado Juvenil “Soy Emprendedor” </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123958429_ea76a217ec_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulo de atención integral para juventudes y entrega de preservativos </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123958384_6724daa738_b.jpg</t>
+  </si>
+  <si>
+    <t>Visita y seguimiento del programa Proyectos Solidarios”</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124072570_267bd8ba94_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123616651_6c8709c8bf_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123958484_bb13003f62_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54122770402_96e696b6c2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123616821_375beacb37_k.jpg</t>
+  </si>
+  <si>
+    <t>Charla participativa "EncontrArte"</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124020134_a592873769_k.jpg</t>
+  </si>
+  <si>
+    <t>Jilotepec</t>
+  </si>
+  <si>
+    <t>30097</t>
+  </si>
+  <si>
+    <t>Lerdo de Tejada</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54122831207_376d14a0e7_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54122770667_8398b0dbba_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado juvenil “Soy Emprendedor” </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54122831132_5b9a212f86_h.jpg</t>
+  </si>
+  <si>
+    <t>Modulo de atención para juventudes</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123677236_47c9608c21_k.jpg</t>
+  </si>
+  <si>
+    <t>Pláticas para la prevención de adicciones, promoción de salud mental y gestión de emociones</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123677386_7aa0c31fa6_k.jpg</t>
+  </si>
+  <si>
+    <t>30047</t>
+  </si>
+  <si>
+    <t>Coscomatepec</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54123186437_c0df5eafe8_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124307853_5154785f75_k.jpg</t>
+  </si>
+  <si>
+    <t>Modulo de atencion a juventudes</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124488815_5e11780745_k.jpg</t>
+  </si>
+  <si>
+    <t>Presentación editorial de revistas Veracruzenials y Juventudes por la Paz</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124307883_8add159acf_k.jpg</t>
+  </si>
+  <si>
+    <t>XIX Parlamento de la Juventud</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54124376224_91d4f219af_h.jpg</t>
+  </si>
+  <si>
+    <t>No Aplica</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1498,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1459,6 +1622,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1783,18 +1949,18 @@
       <selection activeCell="D2" sqref="D2:D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="48" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="6"/>
+    <col min="7" max="16384" width="11.44140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
@@ -1814,7 +1980,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1854,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1874,7 +2040,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1894,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -1914,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -1934,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1974,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>40</v>
       </c>
@@ -2014,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -2034,7 +2200,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
@@ -2054,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -2074,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -2094,7 +2260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
@@ -2114,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -2134,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>60</v>
       </c>
@@ -2154,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
@@ -2174,7 +2340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
@@ -2194,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>66</v>
       </c>
@@ -2214,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>68</v>
       </c>
@@ -2234,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>78</v>
       </c>
@@ -2254,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
@@ -2274,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>80</v>
       </c>
@@ -2294,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>80</v>
       </c>
@@ -2314,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>84</v>
       </c>
@@ -2334,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>86</v>
       </c>
@@ -2354,7 +2520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
@@ -2374,7 +2540,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>90</v>
       </c>
@@ -2394,7 +2560,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>94</v>
       </c>
@@ -2414,7 +2580,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
@@ -2434,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
@@ -2454,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>104</v>
       </c>
@@ -2474,7 +2640,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -2494,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>114</v>
       </c>
@@ -2514,7 +2680,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
@@ -2534,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>120</v>
       </c>
@@ -2568,17 +2734,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="2"/>
-    <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="11.44140625" style="2"/>
+    <col min="2" max="2" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
@@ -2598,7 +2764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2618,7 +2784,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2638,7 +2804,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2824,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
@@ -2678,7 +2844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -2698,7 +2864,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -2718,7 +2884,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -2738,7 +2904,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
@@ -2758,7 +2924,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
@@ -2778,7 +2944,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -2798,7 +2964,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +2984,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -2838,7 +3004,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>32</v>
       </c>
@@ -2858,7 +3024,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -2878,7 +3044,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
@@ -2898,7 +3064,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>42</v>
       </c>
@@ -2918,7 +3084,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
@@ -2938,7 +3104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>50</v>
       </c>
@@ -2958,7 +3124,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>54</v>
       </c>
@@ -2978,7 +3144,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>60</v>
       </c>
@@ -2998,7 +3164,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>64</v>
       </c>
@@ -3038,7 +3204,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
@@ -3058,7 +3224,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
@@ -3078,7 +3244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>74</v>
       </c>
@@ -3098,7 +3264,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
@@ -3118,7 +3284,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>78</v>
       </c>
@@ -3138,7 +3304,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>82</v>
       </c>
@@ -3158,7 +3324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>90</v>
       </c>
@@ -3178,7 +3344,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>92</v>
       </c>
@@ -3198,7 +3364,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
@@ -3218,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>100</v>
       </c>
@@ -3238,7 +3404,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>106</v>
       </c>
@@ -3258,7 +3424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -3278,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
@@ -3298,7 +3464,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
@@ -3318,7 +3484,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>114</v>
       </c>
@@ -3338,7 +3504,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>118</v>
       </c>
@@ -3358,7 +3524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
         <v>178</v>
       </c>
@@ -3378,7 +3544,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3564,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
         <v>184</v>
       </c>
@@ -3418,7 +3584,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>188</v>
       </c>
@@ -3438,7 +3604,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>192</v>
       </c>
@@ -3458,7 +3624,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>28</v>
       </c>
@@ -3478,7 +3644,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
         <v>30</v>
       </c>
@@ -3498,7 +3664,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>18</v>
       </c>
@@ -3518,7 +3684,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
         <v>20</v>
       </c>
@@ -3538,7 +3704,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
         <v>26</v>
       </c>
@@ -3558,7 +3724,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +3744,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
         <v>36</v>
       </c>
@@ -3598,7 +3764,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="16" t="s">
         <v>42</v>
       </c>
@@ -3618,7 +3784,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="16" t="s">
         <v>48</v>
       </c>
@@ -3638,7 +3804,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
         <v>58</v>
       </c>
@@ -3658,7 +3824,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="16" t="s">
         <v>60</v>
       </c>
@@ -3678,7 +3844,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="16" t="s">
         <v>62</v>
       </c>
@@ -3698,7 +3864,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="16" t="s">
         <v>212</v>
       </c>
@@ -3718,7 +3884,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="16" t="s">
         <v>64</v>
       </c>
@@ -3738,7 +3904,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="16" t="s">
         <v>72</v>
       </c>
@@ -3758,7 +3924,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="16" t="s">
         <v>74</v>
       </c>
@@ -3778,7 +3944,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="16" t="s">
         <v>76</v>
       </c>
@@ -3798,7 +3964,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>90</v>
       </c>
@@ -3818,7 +3984,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="16" t="s">
         <v>118</v>
       </c>
@@ -3838,7 +4004,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
         <v>100</v>
       </c>
@@ -3858,7 +4024,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>102</v>
       </c>
@@ -3878,7 +4044,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>106</v>
       </c>
@@ -3898,7 +4064,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="16" t="s">
         <v>50</v>
       </c>
@@ -3918,7 +4084,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>223</v>
       </c>
@@ -3938,7 +4104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>114</v>
       </c>
@@ -4011,13 +4177,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E83" sqref="D59:E84"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>141</v>
       </c>
@@ -4037,7 +4203,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>227</v>
       </c>
@@ -4057,7 +4223,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>231</v>
       </c>
@@ -4077,7 +4243,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
         <v>42</v>
       </c>
@@ -4097,7 +4263,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>48</v>
       </c>
@@ -4117,7 +4283,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +4303,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +4323,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="26" t="s">
         <v>66</v>
       </c>
@@ -4177,7 +4343,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>244</v>
       </c>
@@ -4197,7 +4363,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>74</v>
       </c>
@@ -4217,7 +4383,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>76</v>
       </c>
@@ -4237,7 +4403,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>90</v>
       </c>
@@ -4257,7 +4423,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>98</v>
       </c>
@@ -4277,7 +4443,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>104</v>
       </c>
@@ -4297,7 +4463,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="26" t="s">
         <v>257</v>
       </c>
@@ -4317,7 +4483,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="s">
         <v>50</v>
       </c>
@@ -4337,7 +4503,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
         <v>223</v>
       </c>
@@ -4357,7 +4523,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="s">
         <v>114</v>
       </c>
@@ -4377,7 +4543,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>82</v>
       </c>
@@ -4397,7 +4563,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>188</v>
       </c>
@@ -4417,7 +4583,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>212</v>
       </c>
@@ -4437,7 +4603,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>110</v>
       </c>
@@ -4457,7 +4623,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>4</v>
       </c>
@@ -4477,7 +4643,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>275</v>
       </c>
@@ -4497,7 +4663,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>14</v>
       </c>
@@ -4517,7 +4683,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>22</v>
       </c>
@@ -4537,7 +4703,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>227</v>
       </c>
@@ -4557,7 +4723,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>281</v>
       </c>
@@ -4577,7 +4743,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>58</v>
       </c>
@@ -4597,7 +4763,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>64</v>
       </c>
@@ -4617,7 +4783,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>66</v>
       </c>
@@ -4637,7 +4803,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
         <v>74</v>
       </c>
@@ -4657,7 +4823,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>96</v>
       </c>
@@ -4677,7 +4843,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>108</v>
       </c>
@@ -4697,7 +4863,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>16</v>
       </c>
@@ -4717,7 +4883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
         <v>50</v>
       </c>
@@ -4737,7 +4903,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>68</v>
       </c>
@@ -4757,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>38</v>
       </c>
@@ -4777,7 +4943,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="37">
         <v>30124</v>
       </c>
@@ -4797,7 +4963,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>108</v>
       </c>
@@ -4817,7 +4983,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>34</v>
       </c>
@@ -4837,7 +5003,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="37" t="s">
         <v>50</v>
       </c>
@@ -4857,7 +5023,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="37" t="s">
         <v>12</v>
       </c>
@@ -4877,7 +5043,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>28</v>
       </c>
@@ -4897,7 +5063,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="37" t="s">
         <v>48</v>
       </c>
@@ -4917,7 +5083,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="37" t="s">
         <v>62</v>
       </c>
@@ -4937,7 +5103,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>86</v>
       </c>
@@ -4957,7 +5123,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>100</v>
       </c>
@@ -4977,7 +5143,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +5163,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="37" t="s">
         <v>50</v>
       </c>
@@ -5017,7 +5183,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="37" t="s">
         <v>275</v>
       </c>
@@ -5037,7 +5203,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="37" t="s">
         <v>50</v>
       </c>
@@ -5057,7 +5223,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="37" t="s">
         <v>329</v>
       </c>
@@ -5077,7 +5243,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="37" t="s">
         <v>52</v>
       </c>
@@ -5097,7 +5263,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="37" t="s">
         <v>330</v>
       </c>
@@ -5117,7 +5283,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="37" t="s">
         <v>54</v>
       </c>
@@ -5137,7 +5303,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>331</v>
       </c>
@@ -5157,7 +5323,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="37" t="s">
         <v>332</v>
       </c>
@@ -5177,7 +5343,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="40" t="s">
         <v>52</v>
       </c>
@@ -5197,7 +5363,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="40" t="s">
         <v>227</v>
       </c>
@@ -5217,7 +5383,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
         <v>108</v>
       </c>
@@ -5237,7 +5403,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
         <v>18</v>
       </c>
@@ -5257,7 +5423,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>30124</v>
       </c>
@@ -5277,7 +5443,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
         <v>330</v>
       </c>
@@ -5297,7 +5463,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="40" t="s">
         <v>329</v>
       </c>
@@ -5317,7 +5483,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
         <v>20</v>
       </c>
@@ -5337,7 +5503,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="40" t="s">
         <v>22</v>
       </c>
@@ -5357,7 +5523,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="40" t="s">
         <v>382</v>
       </c>
@@ -5377,7 +5543,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="40" t="s">
         <v>66</v>
       </c>
@@ -5397,7 +5563,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="40" t="s">
         <v>353</v>
       </c>
@@ -5417,7 +5583,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="40" t="s">
         <v>82</v>
       </c>
@@ -5437,7 +5603,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="40" t="s">
         <v>104</v>
       </c>
@@ -5457,7 +5623,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="40" t="s">
         <v>358</v>
       </c>
@@ -5477,7 +5643,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="40" t="s">
         <v>54</v>
       </c>
@@ -5497,7 +5663,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>116</v>
       </c>
@@ -5517,7 +5683,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>383</v>
       </c>
@@ -5537,7 +5703,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="40" t="s">
         <v>331</v>
       </c>
@@ -5557,7 +5723,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="40" t="s">
         <v>384</v>
       </c>
@@ -5577,7 +5743,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="40" t="s">
         <v>332</v>
       </c>
@@ -5597,7 +5763,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="40" t="s">
         <v>385</v>
       </c>
@@ -5617,7 +5783,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="40" t="s">
         <v>50</v>
       </c>
@@ -5637,7 +5803,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
         <v>331</v>
       </c>
@@ -5657,7 +5823,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
         <v>257</v>
       </c>
@@ -5677,7 +5843,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="40" t="s">
         <v>378</v>
       </c>
@@ -5715,4 +5881,626 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B738F7-8FC0-4701-932C-834C63A262A1}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="27">
+        <v>316</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="27">
+        <v>960</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="27">
+        <v>297</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="27">
+        <v>150</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D6" s="27">
+        <v>90</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="27">
+        <v>100</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="27">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <v>30124</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="27">
+        <v>8</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D10" s="27">
+        <v>150</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D11" s="27">
+        <v>50</v>
+      </c>
+      <c r="E11" s="26">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D12" s="27">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26">
+        <v>1</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="27">
+        <v>30</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="27">
+        <v>30</v>
+      </c>
+      <c r="E14" s="26">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="27">
+        <v>33</v>
+      </c>
+      <c r="E15" s="26">
+        <v>1</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="31">
+        <v>120</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="31">
+        <v>120</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="31">
+        <v>200</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="31">
+        <v>120</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D20" s="31">
+        <v>150</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="D21" s="45">
+        <v>1197</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="31">
+        <v>9</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" s="31">
+        <v>920</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="31">
+        <v>692</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>430</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D25" s="38">
+        <v>120</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="38">
+        <v>120</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" s="38">
+        <v>120</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" s="38">
+        <v>40</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F28" s="39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" s="38">
+        <v>50</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{E03770CD-F9D5-478D-A67C-CDF2FED90616}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{09781351-B661-48AD-A8D2-41055DA5F6A1}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{06ABA91D-1752-473A-90B9-5CCA2B8B4C53}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{570227B0-8883-4FE7-83CF-BCA921E7A3B3}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{9F716A98-DCA4-4E5D-9299-21BEDD0024B6}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{27509AF2-D9D2-47AA-88AF-72F6AB38E1B6}"/>
+    <hyperlink ref="F12" r:id="rId7" xr:uid="{C2D91628-82F6-4BB3-BAC0-76974C0C1B84}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{45009BF1-98FB-4DBA-8184-0BD9AFEA0ECA}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{119D2F9D-525A-4DFD-942B-32C56B205849}"/>
+    <hyperlink ref="F4" r:id="rId10" xr:uid="{6BB0E6D6-9E92-49E7-89CF-8684DBD837B4}"/>
+    <hyperlink ref="F3" r:id="rId11" xr:uid="{871924FB-DF0C-4C50-99C8-7053269A39C2}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{F473BA0C-12CF-4817-977E-E6EC65F7AFC8}"/>
+    <hyperlink ref="F8" r:id="rId13" xr:uid="{AAC0A3D0-35C2-413B-BD35-54C29F993ADD}"/>
+    <hyperlink ref="F2" r:id="rId14" xr:uid="{90D2401B-82A8-4468-9EE3-97E634F35CCD}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{910C4C85-5653-4FBF-8FBB-FBBE1E27022D}"/>
+    <hyperlink ref="F21" r:id="rId16" xr:uid="{2619CA7A-84D3-4B40-A043-B7681169DD1F}"/>
+    <hyperlink ref="F19" r:id="rId17" xr:uid="{A6D5BA63-C639-4333-9F6B-E6AAF89FDBFC}"/>
+    <hyperlink ref="F24" r:id="rId18" xr:uid="{2237A170-4D4C-431B-97C4-41282899D1B6}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{DCF79781-F065-494E-8055-8DF468E73CEC}"/>
+    <hyperlink ref="F22" r:id="rId20" xr:uid="{96A61194-A427-464B-8BF0-95FC33939DB7}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{336F87EE-5D16-4609-80F0-DD29834DDCFA}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{78330165-6608-43E1-93D9-BD2B845CCBB0}"/>
+    <hyperlink ref="F28" r:id="rId23" xr:uid="{67F631C8-7E1A-4C16-9E33-02F970F8CDE2}"/>
+    <hyperlink ref="F27" r:id="rId24" xr:uid="{C865117B-2341-408D-8A1C-8D912A70A613}"/>
+    <hyperlink ref="F29" r:id="rId25" xr:uid="{8C1B9FAD-CA22-4249-8ADE-3458F273CB5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>